--- a/T04_M3_D2_Dimension_Mapping_metadata.xlsx
+++ b/T04_M3_D2_Dimension_Mapping_metadata.xlsx
@@ -8,19 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS_SQL12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77754625-C88F-410C-BED9-AC05230DC13F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA7FC90-AA18-4D5C-BD98-552077ED26EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer" sheetId="2" r:id="rId2"/>
+    <sheet name="Dealer" sheetId="3" r:id="rId3"/>
+    <sheet name="Incentive_plan" sheetId="4" r:id="rId4"/>
+    <sheet name="Manufacturing_date" sheetId="5" r:id="rId5"/>
+    <sheet name="Manufacturing_plant" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="100">
   <si>
     <t>Database</t>
   </si>
@@ -83,6 +88,243 @@
   </si>
   <si>
     <t>First_Time_Buyer</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_04_Customer</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Cust_Key</t>
+  </si>
+  <si>
+    <t>Cust_City</t>
+  </si>
+  <si>
+    <t>Cust_Id</t>
+  </si>
+  <si>
+    <t>Cust_County</t>
+  </si>
+  <si>
+    <t>Cust_State</t>
+  </si>
+  <si>
+    <t>Cust_Country</t>
+  </si>
+  <si>
+    <t>Cust_Zip</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_04_Dealer</t>
+  </si>
+  <si>
+    <t>Dealer</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_04_Incentive_Plan</t>
+  </si>
+  <si>
+    <t>Incentive_Plan</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_04_Manufacturing_Date</t>
+  </si>
+  <si>
+    <t>Manufacturing_Date</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_04_Manufacturing_Plant</t>
+  </si>
+  <si>
+    <t>Manufacturing_Plant</t>
+  </si>
+  <si>
+    <t>DLR_Key</t>
+  </si>
+  <si>
+    <t>DLR_Name</t>
+  </si>
+  <si>
+    <t>DLR_Code</t>
+  </si>
+  <si>
+    <t>DLR_Address</t>
+  </si>
+  <si>
+    <t>DLR_City</t>
+  </si>
+  <si>
+    <t>DLR_County</t>
+  </si>
+  <si>
+    <t>DLR_State</t>
+  </si>
+  <si>
+    <t>DLR_Country</t>
+  </si>
+  <si>
+    <t>DLR_Zip</t>
+  </si>
+  <si>
+    <t>DLR_Authorized_Makes</t>
+  </si>
+  <si>
+    <t>DLR_Independent_Or_Corporate</t>
+  </si>
+  <si>
+    <t>DLR_Email_Address</t>
+  </si>
+  <si>
+    <t>DLR_Initiation_Date</t>
+  </si>
+  <si>
+    <t>DLR_Phone_Number</t>
+  </si>
+  <si>
+    <t>DLR_Official_Website_ID</t>
+  </si>
+  <si>
+    <t>DLR_Official_WebsiteURL</t>
+  </si>
+  <si>
+    <t>DLR_Official_WebsiteAdministrator_Email</t>
+  </si>
+  <si>
+    <t>DLR_Official_Website_Start_Date</t>
+  </si>
+  <si>
+    <t>PLAN_Key</t>
+  </si>
+  <si>
+    <t>PLAN_ID</t>
+  </si>
+  <si>
+    <t>PLAN_Type</t>
+  </si>
+  <si>
+    <t>PLAN_Level</t>
+  </si>
+  <si>
+    <t>PLAN_Name</t>
+  </si>
+  <si>
+    <t>PLAN_Description</t>
+  </si>
+  <si>
+    <t>PLAN_Number_of_Payments</t>
+  </si>
+  <si>
+    <t>PLAN_Rate</t>
+  </si>
+  <si>
+    <t>MDAT_Key</t>
+  </si>
+  <si>
+    <t>MDAT_Year</t>
+  </si>
+  <si>
+    <t>MDAT_Quarter_Key</t>
+  </si>
+  <si>
+    <t>MDAT_Quarter_Name</t>
+  </si>
+  <si>
+    <t>MDAT_Quarter_Description</t>
+  </si>
+  <si>
+    <t>MDAT_Quarter</t>
+  </si>
+  <si>
+    <t>MDAT_Week</t>
+  </si>
+  <si>
+    <t>MDAT_Week_Of_Year</t>
+  </si>
+  <si>
+    <t>MDAT_Week_Of_Quarter</t>
+  </si>
+  <si>
+    <t>MDAT_Month_Key</t>
+  </si>
+  <si>
+    <t>MDAT_Month_Number</t>
+  </si>
+  <si>
+    <t>MDAT_Month_Name</t>
+  </si>
+  <si>
+    <t>MDAT_Month_Abbreviation</t>
+  </si>
+  <si>
+    <t>MDAT_Day_Of_Year</t>
+  </si>
+  <si>
+    <t>MDAT_Day_Of_Quarter</t>
+  </si>
+  <si>
+    <t>MDAT_Day_Of_Week</t>
+  </si>
+  <si>
+    <t>MDAT_Day_Of_Month</t>
+  </si>
+  <si>
+    <t>MDAT_Weekday_Or_Weekend</t>
+  </si>
+  <si>
+    <t>MDAT_Date</t>
+  </si>
+  <si>
+    <t>MDAT_Full_Date_Description</t>
+  </si>
+  <si>
+    <t>MFG_Key</t>
+  </si>
+  <si>
+    <t>MFG_Name</t>
+  </si>
+  <si>
+    <t>MFG_Description</t>
+  </si>
+  <si>
+    <t>MFG_Plant_Code</t>
+  </si>
+  <si>
+    <t>MFG_Address</t>
+  </si>
+  <si>
+    <t>MFG_City</t>
+  </si>
+  <si>
+    <t>MFG_County</t>
+  </si>
+  <si>
+    <t>MFG_State</t>
+  </si>
+  <si>
+    <t>MFG_Country</t>
+  </si>
+  <si>
+    <t>MFG_Zip</t>
+  </si>
+  <si>
+    <t>MFG_Date_Established</t>
+  </si>
+  <si>
+    <t>MFG_Number_Of_Workers</t>
+  </si>
+  <si>
+    <t>RTG_ID</t>
+  </si>
+  <si>
+    <t>MFG_Plant_OverAll_Rating</t>
+  </si>
+  <si>
+    <t>MFG_Plant_Efficiency_Rating</t>
+  </si>
+  <si>
+    <t>MFG_Plant_Quality_Rating</t>
   </si>
 </sst>
 </file>
@@ -107,7 +349,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +380,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -199,11 +447,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -218,6 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -239,6 +499,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -576,26 +837,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="12" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -691,11 +952,11 @@
       <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -793,9 +1054,9 @@
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -829,4 +1090,1923 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C545F896-3659-4F67-9D57-2AF1F7488D44}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.90625" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACC5680-8DF7-4CD7-AB5E-4A38861AB217}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="36.90625" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75645E9-B09B-4775-B7A9-23D6702D74D3}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.54296875" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DD1276-15FA-4125-8389-3BF5D5018C76}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="3" width="29.36328125" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5537FA-CC8D-4BE6-AFB7-010233693D49}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/T04_M3_D2_Dimension_Mapping_metadata.xlsx
+++ b/T04_M3_D2_Dimension_Mapping_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS_SQL12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA7FC90-AA18-4D5C-BD98-552077ED26EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C385A8-68E0-4F21-AF25-31ED06976A40}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="146">
   <si>
     <t>Database</t>
   </si>
@@ -325,13 +325,151 @@
   </si>
   <si>
     <t>MFG_Plant_Quality_Rating</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_04_Products</t>
+  </si>
+  <si>
+    <t>CUST_ID</t>
+  </si>
+  <si>
+    <t>CUST_CITY</t>
+  </si>
+  <si>
+    <t>CUST_COUNTY</t>
+  </si>
+  <si>
+    <t>CUST_STATE</t>
+  </si>
+  <si>
+    <t>CUST_COUNTRY</t>
+  </si>
+  <si>
+    <t>CUST_ZIP</t>
+  </si>
+  <si>
+    <t>IncentiveProgram</t>
+  </si>
+  <si>
+    <t>IP_ID</t>
+  </si>
+  <si>
+    <t>IP_Type</t>
+  </si>
+  <si>
+    <t>IP_Level</t>
+  </si>
+  <si>
+    <t>IP_Name</t>
+  </si>
+  <si>
+    <t>IP_Desc</t>
+  </si>
+  <si>
+    <t>IP_Num_Payments</t>
+  </si>
+  <si>
+    <t>IP_Rate</t>
+  </si>
+  <si>
+    <t>DLR_ID</t>
+  </si>
+  <si>
+    <t>DLR_Phone</t>
+  </si>
+  <si>
+    <t>DLR_Type</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_04_Sales_Org</t>
+  </si>
+  <si>
+    <t>RRV_Instance</t>
+  </si>
+  <si>
+    <t>RV_MFG_Date</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_04_Corporate</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>PLA_Name</t>
+  </si>
+  <si>
+    <t>PLA_Desc</t>
+  </si>
+  <si>
+    <t>PLA_Code</t>
+  </si>
+  <si>
+    <t>RTG_Overall_Rating</t>
+  </si>
+  <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>RTG_Quality_Rating</t>
+  </si>
+  <si>
+    <t>RTG_Eff_Rating</t>
+  </si>
+  <si>
+    <t>PLA_Established</t>
+  </si>
+  <si>
+    <t>PLA_WorkForce</t>
+  </si>
+  <si>
+    <t>BR_Address</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>BR_City</t>
+  </si>
+  <si>
+    <t>BR_County</t>
+  </si>
+  <si>
+    <t>BR_Country</t>
+  </si>
+  <si>
+    <t>BR_State</t>
+  </si>
+  <si>
+    <t>BR_Zip</t>
+  </si>
+  <si>
+    <t>WEB_URL</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>WEB_ID</t>
+  </si>
+  <si>
+    <t>WEB_Admin</t>
+  </si>
+  <si>
+    <t>WEB_Start_Date</t>
+  </si>
+  <si>
+    <t>DLR_Email</t>
+  </si>
+  <si>
+    <t>DLR_Since</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -346,6 +484,11 @@
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -387,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -458,11 +601,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -478,6 +640,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,10 +662,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -837,26 +1041,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -952,11 +1156,11 @@
       <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1054,9 +1258,9 @@
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1097,7 +1301,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1105,31 +1309,31 @@
     <col min="1" max="1" width="36.90625" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" customWidth="1"/>
     <col min="3" max="3" width="24.08984375" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" customWidth="1"/>
     <col min="6" max="6" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1179,15 +1383,11 @@
       <c r="C3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="D3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -1205,9 +1405,15 @@
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1215,7 +1421,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -1225,11 +1431,15 @@
       <c r="C5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="D5" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>102</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1247,9 +1457,15 @@
       <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>103</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1267,9 +1483,15 @@
       <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1287,9 +1509,15 @@
       <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>105</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1307,9 +1535,15 @@
       <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="D9" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -1323,7 +1557,7 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1331,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACC5680-8DF7-4CD7-AB5E-4A38861AB217}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1347,26 +1581,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1416,15 +1650,11 @@
       <c r="C3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="D3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -1442,9 +1672,13 @@
       <c r="C4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="35" t="s">
+        <v>40</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1462,11 +1696,9 @@
       <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1481,7 +1713,7 @@
       <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="2"/>
@@ -1504,9 +1736,13 @@
       <c r="C7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1524,7 +1760,9 @@
       <c r="C8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="6"/>
@@ -1544,9 +1782,13 @@
       <c r="C9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -1564,7 +1806,9 @@
       <c r="C10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1584,9 +1828,13 @@
       <c r="C11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="35" t="s">
+        <v>46</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1624,9 +1872,13 @@
       <c r="C13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="43" t="s">
+        <v>117</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1646,7 +1898,9 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="42" t="s">
+        <v>144</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1666,7 +1920,9 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="44" t="s">
+        <v>145</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1684,9 +1940,13 @@
       <c r="C16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="45" t="s">
+        <v>116</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1704,9 +1964,15 @@
       <c r="C17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>141</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1724,9 +1990,15 @@
       <c r="C18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="D18" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>139</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1744,9 +2016,15 @@
       <c r="C19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="D19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>142</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1764,9 +2042,15 @@
       <c r="C20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="D20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>143</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -1774,13 +2058,38 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D28" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1791,7 +2100,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1800,29 +2109,31 @@
     <col min="2" max="2" width="23.6328125" customWidth="1"/>
     <col min="3" max="3" width="27.7265625" customWidth="1"/>
     <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1872,15 +2183,11 @@
       <c r="C3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="D3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -1898,9 +2205,15 @@
       <c r="C4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>108</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1908,7 +2221,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
@@ -1918,11 +2231,15 @@
       <c r="C5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="D5" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1940,9 +2257,15 @@
       <c r="C6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>110</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1960,9 +2283,15 @@
       <c r="C7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>111</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1980,9 +2309,15 @@
       <c r="C8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -2000,9 +2335,15 @@
       <c r="C9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="D9" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -2020,9 +2361,15 @@
       <c r="C10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="D10" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -2036,7 +2383,7 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2047,39 +2394,39 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.6328125" customWidth="1"/>
     <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="3" width="29.36328125" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="3" max="4" width="29.36328125" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
     <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -2129,15 +2476,11 @@
       <c r="C3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="D3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -2155,9 +2498,15 @@
       <c r="C4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -2165,7 +2514,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>34</v>
       </c>
@@ -2175,11 +2524,11 @@
       <c r="C5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -2197,9 +2546,15 @@
       <c r="C6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -2217,9 +2572,15 @@
       <c r="C7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -2237,9 +2598,15 @@
       <c r="C8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -2257,9 +2624,15 @@
       <c r="C9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="D9" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -2277,9 +2650,15 @@
       <c r="C10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="D10" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -2297,9 +2676,15 @@
       <c r="C11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -2317,9 +2702,11 @@
       <c r="C12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="D12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -2337,9 +2724,15 @@
       <c r="C13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="D13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -2357,9 +2750,15 @@
       <c r="C14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="D14" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -2377,9 +2776,15 @@
       <c r="C15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="D15" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -2397,9 +2802,15 @@
       <c r="C16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="D16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -2417,9 +2828,15 @@
       <c r="C17" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2437,9 +2854,15 @@
       <c r="C18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="D18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -2457,9 +2880,15 @@
       <c r="C19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="D19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -2477,9 +2906,15 @@
       <c r="C20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="D20" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -2497,9 +2932,15 @@
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="D21" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -2517,9 +2958,15 @@
       <c r="C22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="D22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2528,12 +2975,14 @@
       <c r="L22" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2543,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5537FA-CC8D-4BE6-AFB7-010233693D49}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2552,30 +3001,32 @@
     <col min="1" max="1" width="37.7265625" customWidth="1"/>
     <col min="2" max="2" width="26.26953125" customWidth="1"/>
     <col min="3" max="3" width="24.6328125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -2625,15 +3076,11 @@
       <c r="C3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="D3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -2651,9 +3098,15 @@
       <c r="C4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -2671,11 +3124,15 @@
       <c r="C5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="D5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>124</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -2693,9 +3150,15 @@
       <c r="C6" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>125</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -2713,9 +3176,15 @@
       <c r="C7" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>132</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -2733,9 +3202,15 @@
       <c r="C8" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -2753,9 +3228,15 @@
       <c r="C9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="D9" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>135</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -2773,9 +3254,15 @@
       <c r="C10" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="D10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>137</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -2793,9 +3280,15 @@
       <c r="C11" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -2813,9 +3306,15 @@
       <c r="C12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="D12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>138</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -2833,9 +3332,15 @@
       <c r="C13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="D13" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>130</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -2853,9 +3358,15 @@
       <c r="C14" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="D14" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -2873,9 +3384,15 @@
       <c r="C15" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="D15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -2893,9 +3410,15 @@
       <c r="C16" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="D16" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>126</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -2913,9 +3436,15 @@
       <c r="C17" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2933,9 +3462,15 @@
       <c r="C18" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="D18" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>129</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -3005,7 +3540,7 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/T04_M3_D2_Dimension_Mapping_metadata.xlsx
+++ b/T04_M3_D2_Dimension_Mapping_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS_SQL12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C385A8-68E0-4F21-AF25-31ED06976A40}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE614DF1-6E79-40B7-B58A-1346CB62E6D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="141">
   <si>
     <t>Database</t>
   </si>
@@ -90,9 +90,6 @@
     <t>First_Time_Buyer</t>
   </si>
   <si>
-    <t>SEIS732_Team_04_Customer</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
@@ -117,27 +114,15 @@
     <t>Cust_Zip</t>
   </si>
   <si>
-    <t>SEIS732_Team_04_Dealer</t>
-  </si>
-  <si>
     <t>Dealer</t>
   </si>
   <si>
-    <t>SEIS732_Team_04_Incentive_Plan</t>
-  </si>
-  <si>
     <t>Incentive_Plan</t>
   </si>
   <si>
-    <t>SEIS732_Team_04_Manufacturing_Date</t>
-  </si>
-  <si>
     <t>Manufacturing_Date</t>
   </si>
   <si>
-    <t>SEIS732_Team_04_Manufacturing_Plant</t>
-  </si>
-  <si>
     <t>Manufacturing_Plant</t>
   </si>
   <si>
@@ -372,9 +357,6 @@
     <t>IP_Rate</t>
   </si>
   <si>
-    <t>DLR_ID</t>
-  </si>
-  <si>
     <t>DLR_Phone</t>
   </si>
   <si>
@@ -463,6 +445,9 @@
   </si>
   <si>
     <t>DLR_Since</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_04_Star_Schema</t>
   </si>
 </sst>
 </file>
@@ -641,6 +626,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,9 +670,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,19 +679,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,13 +688,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,26 +1026,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1156,11 +1141,11 @@
       <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1258,9 +1243,9 @@
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1301,7 +1286,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A3" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1314,26 +1299,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1375,19 +1360,19 @@
     </row>
     <row r="3" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -1396,23 +1381,23 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>101</v>
+        <v>24</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1422,23 +1407,23 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>102</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -1448,23 +1433,23 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>103</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1474,23 +1459,23 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>104</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1500,23 +1485,23 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>105</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1526,23 +1511,23 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>106</v>
+        <v>28</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1567,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACC5680-8DF7-4CD7-AB5E-4A38861AB217}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1581,26 +1566,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1642,19 +1627,19 @@
     </row>
     <row r="3" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -1663,21 +1648,21 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>30</v>
+      <c r="A4" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>118</v>
+        <v>35</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="35" t="s">
-        <v>40</v>
+      <c r="F4" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1687,18 +1672,18 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>30</v>
+      <c r="A5" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1707,14 +1692,14 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>30</v>
+      <c r="A6" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1727,21 +1712,21 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>30</v>
+      <c r="A7" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>100</v>
+        <v>37</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="21" t="s">
-        <v>42</v>
+      <c r="F7" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1751,17 +1736,17 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>30</v>
+      <c r="A8" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1773,21 +1758,21 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>30</v>
+      <c r="A9" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>100</v>
+        <v>39</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="21" t="s">
-        <v>44</v>
+      <c r="F9" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1797,17 +1782,17 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>30</v>
+      <c r="A10" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1819,21 +1804,21 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>30</v>
+      <c r="A11" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="35" t="s">
-        <v>46</v>
+      <c r="F11" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1843,14 +1828,14 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>30</v>
+      <c r="A12" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1863,21 +1848,21 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>30</v>
+      <c r="A13" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>118</v>
+        <v>43</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="43" t="s">
-        <v>117</v>
+      <c r="F13" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1887,19 +1872,19 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>30</v>
+      <c r="A14" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="42" t="s">
-        <v>144</v>
+      <c r="F14" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1909,19 +1894,19 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>30</v>
+      <c r="A15" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="44" t="s">
-        <v>145</v>
+      <c r="F15" s="31" t="s">
+        <v>139</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1931,21 +1916,21 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>30</v>
+      <c r="A16" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>118</v>
+        <v>46</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="45" t="s">
-        <v>116</v>
+      <c r="F16" s="32" t="s">
+        <v>110</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1955,23 +1940,23 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>30</v>
+      <c r="A17" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>121</v>
+        <v>47</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>141</v>
+        <v>134</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1981,23 +1966,23 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>30</v>
+      <c r="A18" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>121</v>
+        <v>48</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -2007,23 +1992,23 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>30</v>
+      <c r="A19" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>121</v>
+        <v>49</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>142</v>
+        <v>134</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -2033,23 +2018,23 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>30</v>
+      <c r="A20" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>121</v>
+        <v>50</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2059,29 +2044,19 @@
       <c r="L20" s="9"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="35" t="s">
-        <v>115</v>
-      </c>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="35" t="s">
-        <v>116</v>
-      </c>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="35" t="s">
-        <v>117</v>
-      </c>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="35" t="s">
-        <v>46</v>
-      </c>
+      <c r="D28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2100,7 +2075,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2114,26 +2089,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -2175,19 +2150,19 @@
     </row>
     <row r="3" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -2196,23 +2171,23 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>32</v>
+      <c r="A4" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>108</v>
+        <v>52</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2222,23 +2197,23 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>32</v>
+      <c r="A5" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>109</v>
+        <v>53</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -2248,23 +2223,23 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>32</v>
+      <c r="A6" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>110</v>
+        <v>54</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -2274,23 +2249,23 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>32</v>
+      <c r="A7" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>111</v>
+        <v>55</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -2300,23 +2275,23 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>32</v>
+      <c r="A8" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -2326,23 +2301,23 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>32</v>
+      <c r="A9" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>113</v>
+        <v>57</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -2352,23 +2327,23 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>32</v>
+      <c r="A10" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>114</v>
+        <v>58</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -2394,7 +2369,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+      <selection activeCell="A3" sqref="A3:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2407,26 +2382,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -2468,19 +2443,19 @@
     </row>
     <row r="3" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -2489,23 +2464,23 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>34</v>
+      <c r="A4" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2515,20 +2490,20 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>34</v>
+      <c r="A5" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -2537,23 +2512,23 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>34</v>
+      <c r="A6" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>120</v>
+        <v>62</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -2563,23 +2538,23 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>34</v>
+      <c r="A7" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>120</v>
+        <v>63</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -2589,23 +2564,23 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>34</v>
+      <c r="A8" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>120</v>
+        <v>64</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -2615,23 +2590,23 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>34</v>
+      <c r="A9" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>120</v>
+        <v>65</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -2641,23 +2616,23 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>34</v>
+      <c r="A10" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>120</v>
+        <v>66</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -2667,23 +2642,23 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>34</v>
+      <c r="A11" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>120</v>
+        <v>67</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -2693,20 +2668,20 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>34</v>
+      <c r="A12" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -2715,23 +2690,23 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>34</v>
+      <c r="A13" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>120</v>
+        <v>69</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -2741,23 +2716,23 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>34</v>
+      <c r="A14" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>120</v>
+        <v>70</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -2767,23 +2742,23 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>34</v>
+      <c r="A15" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>120</v>
+        <v>71</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -2793,23 +2768,23 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>34</v>
+      <c r="A16" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>120</v>
+        <v>72</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -2819,23 +2794,23 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>34</v>
+      <c r="A17" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>120</v>
+        <v>73</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -2845,23 +2820,23 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>34</v>
+      <c r="A18" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>120</v>
+        <v>74</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -2871,23 +2846,23 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>34</v>
+      <c r="A19" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>120</v>
+        <v>75</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -2897,23 +2872,23 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>34</v>
+      <c r="A20" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>120</v>
+        <v>76</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2923,23 +2898,23 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>34</v>
+      <c r="A21" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>120</v>
+        <v>77</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -2949,23 +2924,23 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>34</v>
+      <c r="A22" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>120</v>
+        <v>78</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2992,8 +2967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5537FA-CC8D-4BE6-AFB7-010233693D49}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3007,26 +2982,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -3068,19 +3043,19 @@
     </row>
     <row r="3" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -3089,23 +3064,23 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>36</v>
+      <c r="A4" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>121</v>
+        <v>80</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -3115,23 +3090,23 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>36</v>
+      <c r="A5" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>124</v>
+        <v>81</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -3141,23 +3116,23 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>36</v>
+      <c r="A6" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>125</v>
+        <v>82</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -3167,23 +3142,23 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>36</v>
+      <c r="A7" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>121</v>
+        <v>83</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -3193,23 +3168,23 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>36</v>
+      <c r="A8" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>134</v>
+        <v>84</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -3219,23 +3194,23 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>36</v>
+      <c r="A9" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>135</v>
+        <v>85</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -3245,23 +3220,23 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>36</v>
+      <c r="A10" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>137</v>
+        <v>86</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -3271,23 +3246,23 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>36</v>
+      <c r="A11" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>136</v>
+        <v>87</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -3297,23 +3272,23 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>36</v>
+      <c r="A12" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>138</v>
+        <v>88</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -3323,23 +3298,23 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>36</v>
+      <c r="A13" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>130</v>
+        <v>89</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -3349,23 +3324,23 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>36</v>
+      <c r="A14" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>131</v>
+        <v>90</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -3375,23 +3350,23 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>36</v>
+      <c r="A15" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -3401,23 +3376,23 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>36</v>
+      <c r="A16" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>126</v>
+      <c r="F16" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -3427,23 +3402,23 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>36</v>
+      <c r="A17" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>128</v>
+      <c r="F17" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -3453,23 +3428,23 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" s="10" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>36</v>
+      <c r="A18" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>129</v>
+      <c r="F18" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
